--- a/src/assets/xlsx/업로드양식_KPI시간당생산량.xlsx
+++ b/src/assets/xlsx/업로드양식_KPI시간당생산량.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5CF0B4-42F7-4DD1-947B-5464DF796761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47921AB9-C500-4F95-9EC6-8D277D7C55B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>연월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; 예시데이터는 삭제 후 업로드 해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +119,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E49B3-BEA6-4E89-9B1B-535FDF43921D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -454,8 +463,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>202302</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>90</v>
